--- a/Azure and AWS credentials.xlsx
+++ b/Azure and AWS credentials.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capgemi_Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mural\OneDrive\Desktop\NovelVista Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
   </bookViews>
   <sheets>
     <sheet name="AZURE" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="153">
   <si>
     <t xml:space="preserve">URL </t>
   </si>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D22"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,7 +894,7 @@
     <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -905,7 +905,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
@@ -916,7 +919,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
@@ -927,7 +933,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
@@ -938,7 +947,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
@@ -949,7 +961,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
@@ -960,7 +975,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
@@ -971,7 +989,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
@@ -982,7 +1003,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
@@ -993,7 +1017,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>43</v>
       </c>
@@ -1004,7 +1031,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
@@ -1015,7 +1045,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
@@ -1026,7 +1059,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1037,7 +1073,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
@@ -1048,7 +1087,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
@@ -1059,7 +1101,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
@@ -1070,7 +1115,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
@@ -1081,7 +1129,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1092,7 +1143,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>149</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1103,7 +1157,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
@@ -1114,7 +1171,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
@@ -1156,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
